--- a/Data/Results/Affinity_Labels_2019.xlsx
+++ b/Data/Results/Affinity_Labels_2019.xlsx
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -949,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -960,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
